--- a/ExplorerFund/operation/strategy_update/sc/SCChecklist.xlsx
+++ b/ExplorerFund/operation/strategy_update/sc/SCChecklist.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Deployment" sheetId="1" r:id="rId1"/>
     <sheet name="Contrac Change" sheetId="4" r:id="rId2"/>
+    <sheet name="收市检查工作" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>从原有系统复制一份</t>
   </si>
@@ -256,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调整新合约手数,更新stra_settXXX.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -283,15 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将旧合约的仓位文件名改为【平仓so】对应的仓位文件
-也要更新内容：id，策略名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传stra_settXXX.csv，so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>ID</t>
     </r>
@@ -333,6 +321,183 @@
   </si>
   <si>
     <t>检查tools/configurator.log,../trasv.config,../so文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_calc="on"
+init_pos_at_start="1"
+model_ctrl_oc="0"
+change_oc_flag="0"
+init_pos_from_ev="1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>检查仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传stra_settXXX.csv，so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整新合约手数,更新stra_settXXX.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旧合约仓位平掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">后：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除所有对应的pos文件
+2.执行pos_sum.py
+3.stra_settXXX.csv中，移除对用的平仓so</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">将旧合约的仓位文件名改为【平仓so】对应的仓位文件
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应仓位文件内容：id，策略名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stra_settXXX.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>so</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查tools/configurator.log,../trasv.config,../so文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>configurator.log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中是否有错误信息</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,12 +533,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -388,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -414,6 +591,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,11 +663,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B30" totalsRowShown="0">
-  <autoFilter ref="A1:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B33" totalsRowShown="0">
+  <autoFilter ref="A1:B33"/>
   <tableColumns count="2">
     <tableColumn id="1" name="标题" dataDxfId="1"/>
     <tableColumn id="2" name="说明" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,7 +974,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -866,11 +1071,13 @@
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="71.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2"/>
@@ -928,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -949,72 +1156,90 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" s="8" customFormat="1">
-      <c r="A3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9"/>
+      <c r="A3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2" s="8" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" s="8" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" s="8" customFormat="1" ht="41.25">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="41.25">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" s="8" customFormat="1" ht="28.5">
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" s="8" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" s="8" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" s="8" customFormat="1" ht="57" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" ht="66" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" s="8" customFormat="1" ht="66" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" ht="41.25">
-      <c r="A7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" ht="41.25">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="9"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" s="8" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="9"/>
@@ -1060,6 +1285,57 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExplorerFund/operation/strategy_update/sc/SCChecklist.xlsx
+++ b/ExplorerFund/operation/strategy_update/sc/SCChecklist.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Deployment" sheetId="1" r:id="rId1"/>
     <sheet name="Contrac Change" sheetId="4" r:id="rId2"/>
     <sheet name="收市检查工作" sheetId="5" r:id="rId3"/>
+    <sheet name="更新配置" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>从原有系统复制一份</t>
   </si>
@@ -417,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应仓位文件内容：id，策略名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -498,6 +495,94 @@
       </rPr>
       <t>中是否有错误信息</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>执行configurator</t>
+  </si>
+  <si>
+    <t>检查tools/configurator.log,../trasv.config,../so文件</t>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stra_settXXX.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos_sum.py</t>
+    </r>
+  </si>
+  <si>
+    <t>更新对应仓位文件内容：id，策略名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有策略下线，则需要合并仓位文件，并删除下线策略的仓位文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传stra_settXXX.csv，so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果某个品种的策略全部下线：
+1.在stra_settXXX.csv配置平仓so
+2.将相关仓位改为平仓so对应仓位文件
+3.删除下线策略仓位文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -606,6 +691,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1199,7 +1294,7 @@
     </row>
     <row r="9" spans="1:2" s="8" customFormat="1" ht="28.5">
       <c r="A9" s="13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>24</v>
@@ -1211,7 +1306,7 @@
       </c>
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" ht="57" customHeight="1">
+    <row r="11" spans="1:2" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
     </row>
@@ -1223,7 +1318,7 @@
     </row>
     <row r="13" spans="1:2" s="8" customFormat="1" ht="66" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="11"/>
     </row>
@@ -1235,10 +1330,10 @@
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" ht="47.25" customHeight="1">
       <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1345,4 +1440,82 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27.75">
+      <c r="A2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:2" ht="60.75" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" ht="34.5" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>